--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf7-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf7-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Fgfr2</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1653316666666667</v>
+        <v>0.08805033333333334</v>
       </c>
       <c r="H2">
-        <v>0.495995</v>
+        <v>0.264151</v>
       </c>
       <c r="I2">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257384</v>
       </c>
       <c r="J2">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257385</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.033285</v>
+        <v>0.7144740000000001</v>
       </c>
       <c r="N2">
-        <v>0.099855</v>
+        <v>2.143422</v>
       </c>
       <c r="O2">
-        <v>0.007684499559038781</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="P2">
-        <v>0.007684499559038781</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="Q2">
-        <v>0.005503064525</v>
+        <v>0.062909673858</v>
       </c>
       <c r="R2">
-        <v>0.049527580725</v>
+        <v>0.5661870647220001</v>
       </c>
       <c r="S2">
-        <v>8.209166056803691E-05</v>
+        <v>0.0007758390138390839</v>
       </c>
       <c r="T2">
-        <v>8.209166056803691E-05</v>
+        <v>0.000775839013839084</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1653316666666667</v>
+        <v>0.08805033333333334</v>
       </c>
       <c r="H3">
-        <v>0.495995</v>
+        <v>0.264151</v>
       </c>
       <c r="I3">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257384</v>
       </c>
       <c r="J3">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257385</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>12.422619</v>
       </c>
       <c r="O3">
-        <v>0.9560023056192156</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="P3">
-        <v>0.9560023056192157</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="Q3">
-        <v>0.6846174345449999</v>
+        <v>0.364605247941</v>
       </c>
       <c r="R3">
-        <v>6.161556910905</v>
+        <v>3.281447231469</v>
       </c>
       <c r="S3">
-        <v>0.01021274270005554</v>
+        <v>0.004496525870434598</v>
       </c>
       <c r="T3">
-        <v>0.01021274270005554</v>
+        <v>0.004496525870434598</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1653316666666667</v>
+        <v>0.08805033333333334</v>
       </c>
       <c r="H4">
-        <v>0.495995</v>
+        <v>0.264151</v>
       </c>
       <c r="I4">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257384</v>
       </c>
       <c r="J4">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257385</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1572886666666667</v>
+        <v>0.2847646666666667</v>
       </c>
       <c r="N4">
-        <v>0.471866</v>
+        <v>0.8542940000000001</v>
       </c>
       <c r="O4">
-        <v>0.03631319482174546</v>
+        <v>0.05531945672713084</v>
       </c>
       <c r="P4">
-        <v>0.03631319482174546</v>
+        <v>0.05531945672713083</v>
       </c>
       <c r="Q4">
-        <v>0.02600479740777778</v>
+        <v>0.02507362382155556</v>
       </c>
       <c r="R4">
-        <v>0.23404317667</v>
+        <v>0.225662614394</v>
       </c>
       <c r="S4">
-        <v>0.0003879251264893827</v>
+        <v>0.0003092226423395143</v>
       </c>
       <c r="T4">
-        <v>0.0003879251264893827</v>
+        <v>0.0003092226423395143</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>14.918018</v>
+        <v>0.08805033333333334</v>
       </c>
       <c r="H5">
-        <v>44.754054</v>
+        <v>0.264151</v>
       </c>
       <c r="I5">
-        <v>0.9639145454193405</v>
+        <v>0.005589762818257384</v>
       </c>
       <c r="J5">
-        <v>0.9639145454193405</v>
+        <v>0.005589762818257385</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.033285</v>
+        <v>0.007528666666666667</v>
       </c>
       <c r="N5">
-        <v>0.099855</v>
+        <v>0.022586</v>
       </c>
       <c r="O5">
-        <v>0.007684499559038781</v>
+        <v>0.00146254714376898</v>
       </c>
       <c r="P5">
-        <v>0.007684499559038781</v>
+        <v>0.00146254714376898</v>
       </c>
       <c r="Q5">
-        <v>0.49654622913</v>
+        <v>0.0006629016095555557</v>
       </c>
       <c r="R5">
-        <v>4.46891606217</v>
+        <v>0.005966114486000001</v>
       </c>
       <c r="S5">
-        <v>0.007407200899225989</v>
+        <v>8.175291644188382E-06</v>
       </c>
       <c r="T5">
-        <v>0.007407200899225989</v>
+        <v>8.175291644188382E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,10 +791,10 @@
         <v>44.754054</v>
       </c>
       <c r="I6">
-        <v>0.9639145454193405</v>
+        <v>0.9470512964761942</v>
       </c>
       <c r="J6">
-        <v>0.9639145454193405</v>
+        <v>0.9470512964761943</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.140873</v>
+        <v>0.7144740000000001</v>
       </c>
       <c r="N6">
-        <v>12.422619</v>
+        <v>2.143422</v>
       </c>
       <c r="O6">
-        <v>0.9560023056192156</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="P6">
-        <v>0.9560023056192157</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="Q6">
-        <v>61.77361794971399</v>
+        <v>10.658535992532</v>
       </c>
       <c r="R6">
-        <v>555.962561547426</v>
+        <v>95.92682393278801</v>
       </c>
       <c r="S6">
-        <v>0.9215045278407876</v>
+        <v>0.1314473203609341</v>
       </c>
       <c r="T6">
-        <v>0.9215045278407877</v>
+        <v>0.1314473203609342</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,10 +853,10 @@
         <v>44.754054</v>
       </c>
       <c r="I7">
-        <v>0.9639145454193405</v>
+        <v>0.9470512964761942</v>
       </c>
       <c r="J7">
-        <v>0.9639145454193405</v>
+        <v>0.9470512964761943</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1572886666666667</v>
+        <v>4.140873</v>
       </c>
       <c r="N7">
-        <v>0.471866</v>
+        <v>12.422619</v>
       </c>
       <c r="O7">
-        <v>0.03631319482174546</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="P7">
-        <v>0.03631319482174546</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="Q7">
-        <v>2.346435160529333</v>
+        <v>61.77361794971401</v>
       </c>
       <c r="R7">
-        <v>21.117916444764</v>
+        <v>555.962561547426</v>
       </c>
       <c r="S7">
-        <v>0.03500281667932673</v>
+        <v>0.7618285057328081</v>
       </c>
       <c r="T7">
-        <v>0.03500281667932673</v>
+        <v>0.7618285057328082</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3931446666666667</v>
+        <v>14.918018</v>
       </c>
       <c r="H8">
-        <v>1.179434</v>
+        <v>44.754054</v>
       </c>
       <c r="I8">
-        <v>0.02540269509354649</v>
+        <v>0.9470512964761942</v>
       </c>
       <c r="J8">
-        <v>0.02540269509354649</v>
+        <v>0.9470512964761943</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.033285</v>
+        <v>0.2847646666666667</v>
       </c>
       <c r="N8">
-        <v>0.099855</v>
+        <v>0.8542940000000001</v>
       </c>
       <c r="O8">
-        <v>0.007684499559038781</v>
+        <v>0.05531945672713084</v>
       </c>
       <c r="P8">
-        <v>0.007684499559038781</v>
+        <v>0.05531945672713083</v>
       </c>
       <c r="Q8">
-        <v>0.01308582023</v>
+        <v>4.248124423097335</v>
       </c>
       <c r="R8">
-        <v>0.11777238207</v>
+        <v>38.23311980787601</v>
       </c>
       <c r="S8">
-        <v>0.0001952069992447546</v>
+        <v>0.05239036321378799</v>
       </c>
       <c r="T8">
-        <v>0.0001952069992447546</v>
+        <v>0.05239036321378798</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3931446666666667</v>
+        <v>14.918018</v>
       </c>
       <c r="H9">
-        <v>1.179434</v>
+        <v>44.754054</v>
       </c>
       <c r="I9">
-        <v>0.02540269509354649</v>
+        <v>0.9470512964761942</v>
       </c>
       <c r="J9">
-        <v>0.02540269509354649</v>
+        <v>0.9470512964761943</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.140873</v>
+        <v>0.007528666666666667</v>
       </c>
       <c r="N9">
-        <v>12.422619</v>
+        <v>0.022586</v>
       </c>
       <c r="O9">
-        <v>0.9560023056192156</v>
+        <v>0.00146254714376898</v>
       </c>
       <c r="P9">
-        <v>0.9560023056192157</v>
+        <v>0.00146254714376898</v>
       </c>
       <c r="Q9">
-        <v>1.627962135294</v>
+        <v>0.1123127848493334</v>
       </c>
       <c r="R9">
-        <v>14.651659217646</v>
+        <v>1.010815063644</v>
       </c>
       <c r="S9">
-        <v>0.02428503507837238</v>
+        <v>0.001385107168663967</v>
       </c>
       <c r="T9">
-        <v>0.02428503507837238</v>
+        <v>0.001385107168663967</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.7460013333333334</v>
+      </c>
+      <c r="H10">
+        <v>2.238004</v>
+      </c>
+      <c r="I10">
+        <v>0.04735894070554834</v>
+      </c>
+      <c r="J10">
+        <v>0.04735894070554835</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.7144740000000001</v>
+      </c>
+      <c r="N10">
+        <v>2.143422</v>
+      </c>
+      <c r="O10">
+        <v>0.138796410342318</v>
+      </c>
+      <c r="P10">
+        <v>0.138796410342318</v>
+      </c>
+      <c r="Q10">
+        <v>0.5329985566320001</v>
+      </c>
+      <c r="R10">
+        <v>4.796987009688</v>
+      </c>
+      <c r="S10">
+        <v>0.006573250967544796</v>
+      </c>
+      <c r="T10">
+        <v>0.006573250967544797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.3931446666666667</v>
-      </c>
-      <c r="H10">
-        <v>1.179434</v>
-      </c>
-      <c r="I10">
-        <v>0.02540269509354649</v>
-      </c>
-      <c r="J10">
-        <v>0.02540269509354649</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.1572886666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.471866</v>
-      </c>
-      <c r="O10">
-        <v>0.03631319482174546</v>
-      </c>
-      <c r="P10">
-        <v>0.03631319482174546</v>
-      </c>
-      <c r="Q10">
-        <v>0.06183720042711111</v>
-      </c>
-      <c r="R10">
-        <v>0.556534803844</v>
-      </c>
-      <c r="S10">
-        <v>0.0009224530159293514</v>
-      </c>
-      <c r="T10">
-        <v>0.0009224530159293513</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7460013333333334</v>
+      </c>
+      <c r="H11">
+        <v>2.238004</v>
+      </c>
+      <c r="I11">
+        <v>0.04735894070554834</v>
+      </c>
+      <c r="J11">
+        <v>0.04735894070554835</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.140873</v>
+      </c>
+      <c r="N11">
+        <v>12.422619</v>
+      </c>
+      <c r="O11">
+        <v>0.8044215857867821</v>
+      </c>
+      <c r="P11">
+        <v>0.8044215857867821</v>
+      </c>
+      <c r="Q11">
+        <v>3.089096779164</v>
+      </c>
+      <c r="R11">
+        <v>27.801871012476</v>
+      </c>
+      <c r="S11">
+        <v>0.03809655418353938</v>
+      </c>
+      <c r="T11">
+        <v>0.03809655418353939</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7460013333333334</v>
+      </c>
+      <c r="H12">
+        <v>2.238004</v>
+      </c>
+      <c r="I12">
+        <v>0.04735894070554834</v>
+      </c>
+      <c r="J12">
+        <v>0.04735894070554835</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.2847646666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.8542940000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.05531945672713084</v>
+      </c>
+      <c r="P12">
+        <v>0.05531945672713083</v>
+      </c>
+      <c r="Q12">
+        <v>0.2124348210195556</v>
+      </c>
+      <c r="R12">
+        <v>1.911913389176</v>
+      </c>
+      <c r="S12">
+        <v>0.002619870871003337</v>
+      </c>
+      <c r="T12">
+        <v>0.002619870871003337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7460013333333334</v>
+      </c>
+      <c r="H13">
+        <v>2.238004</v>
+      </c>
+      <c r="I13">
+        <v>0.04735894070554834</v>
+      </c>
+      <c r="J13">
+        <v>0.04735894070554835</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.007528666666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.022586</v>
+      </c>
+      <c r="O13">
+        <v>0.00146254714376898</v>
+      </c>
+      <c r="P13">
+        <v>0.00146254714376898</v>
+      </c>
+      <c r="Q13">
+        <v>0.005616395371555556</v>
+      </c>
+      <c r="R13">
+        <v>0.05054755834400001</v>
+      </c>
+      <c r="S13">
+        <v>6.926468346082421E-05</v>
+      </c>
+      <c r="T13">
+        <v>6.926468346082421E-05</v>
       </c>
     </row>
   </sheetData>
